--- a/medicine/Sexualité et sexologie/Jeux_interdits_de_l'adolescence/Jeux_interdits_de_l'adolescence.xlsx
+++ b/medicine/Sexualité et sexologie/Jeux_interdits_de_l'adolescence/Jeux_interdits_de_l'adolescence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jeux_interdits_de_l%27adolescence</t>
+          <t>Jeux_interdits_de_l'adolescence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeux interdits de l´adolescence (Maladolescenza ou Spielen wir Liebe) est un film italo-allemand réalisé par Pier Giuseppe Murgia, sorti en 1977.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jeux_interdits_de_l%27adolescence</t>
+          <t>Jeux_interdits_de_l'adolescence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Laura, une jeune fille de presque 12 ans, Fabrizio, un adolescent traumatisé de 17 ans, et Silvia, une fille de 11 ans, font leur apprentissage de l'amour et de la sexualité.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jeux_interdits_de_l%27adolescence</t>
+          <t>Jeux_interdits_de_l'adolescence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Jeux interdits de l´adolescence
 Titre italien : Maladolescenza
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jeux_interdits_de_l%27adolescence</t>
+          <t>Jeux_interdits_de_l'adolescence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lara Wendel : Laura
 Eva Ionesco : Silvia
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jeux_interdits_de_l%27adolescence</t>
+          <t>Jeux_interdits_de_l'adolescence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce film a été diffusé par la télévision française en version intégrale puis interdit[réf. nécessaire]. Il a connu une lourde censure car il contient des scènes érotiques jouées par des mineurs, il a donc été qualifié de pédophile et immoral. Il est aujourd'hui disponible en France sous une version édulcorée, bien que réservé aux plus de 16 ans[réf. nécessaire].
 Il s'agit d'un des tout premiers rôles de l'actrice Eva Ionesco, alors âgée de 11 ans et dont les photos érotiques prises par sa mère Irina Ionesco avaient créé une autre polémique à la même époque.
